--- a/Descargas/R15_3º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Octubre.xlsx
+++ b/Descargas/R15_3º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Octubre.xlsx
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="B48" s="65">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49">
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="B91" s="65">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92">
